--- a/Qlearning_performance.xlsx
+++ b/Qlearning_performance.xlsx
@@ -14,15 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Level</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Instance</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
     <t>Memory</t>
+  </si>
+  <si>
+    <t>(13058218, 25491575)</t>
+  </si>
+  <si>
+    <t>(11134236, 22154930)</t>
+  </si>
+  <si>
+    <t>(16383042, 25097359)</t>
+  </si>
+  <si>
+    <t>(105298365, 116298100)</t>
+  </si>
+  <si>
+    <t>(18313295, 24725876)</t>
+  </si>
+  <si>
+    <t>(12504361, 20648229)</t>
   </si>
   <si>
     <t>Runtime</t>
@@ -386,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,16 +450,118 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>125.8746862411499</v>
+      </c>
+      <c r="E3">
+        <v>6.979999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>177.1712908744812</v>
+      </c>
+      <c r="E4">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>187.8474671840668</v>
+      </c>
+      <c r="E5">
+        <v>19.49257303205486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>211.0283169746399</v>
+      </c>
+      <c r="E6">
+        <v>65.45193631964462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B7" t="s">
         <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>100.6227669715881</v>
+      </c>
+      <c r="E7">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>101.6154689788818</v>
+      </c>
+      <c r="E8">
+        <v>2.934875069885281</v>
       </c>
     </row>
   </sheetData>
